--- a/Reporting/Bronze_tables/Price/df_prices.xlsx
+++ b/Reporting/Bronze_tables/Price/df_prices.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,55 +456,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>912797LH8</t>
+          <t>1m SOFR</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>1m SOFR</t>
+          <t>3m SOFR</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>3m SOFR</t>
+          <t>6m SOFR</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>6m SOFR</t>
+          <t>1y SOFR</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>1y SOFR</t>
+          <t>1m LIBOR</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>1m LIBOR</t>
+          <t>3m LIBOR</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>3m LIBOR</t>
+          <t>1m A1/P1 CP</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>1m A1/P1 CP</t>
+          <t>3m A1/P1 CP</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>3m A1/P1 CP</t>
+          <t>6m A1/P1 CP</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>6m A1/P1 CP</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>9m A1/P1 CP</t>
         </is>
@@ -521,7 +516,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-08-23 14:33:21</t>
+          <t>2024-08-23 15:33:48</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -531,36 +526,33 @@
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>5.2225</v>
+        <v>5.27601</v>
       </c>
       <c r="G2" t="n">
-        <v>5.27601</v>
+        <v>5.08064</v>
       </c>
       <c r="H2" t="n">
-        <v>5.08064</v>
+        <v>4.7737</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7737</v>
+        <v>4.30022</v>
       </c>
       <c r="J2" t="n">
-        <v>4.30022</v>
+        <v>5.39243</v>
       </c>
       <c r="K2" t="n">
-        <v>5.39243</v>
+        <v>5.33292</v>
       </c>
       <c r="L2" t="n">
-        <v>5.33292</v>
+        <v>5.27</v>
       </c>
       <c r="M2" t="n">
-        <v>5.27</v>
+        <v>5.1</v>
       </c>
       <c r="N2" t="n">
-        <v>5.1</v>
+        <v>4.92</v>
       </c>
       <c r="O2" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="P2" t="n">
         <v>4.75</v>
       </c>
     </row>

--- a/Reporting/Bronze_tables/Price/df_prices.xlsx
+++ b/Reporting/Bronze_tables/Price/df_prices.xlsx
@@ -511,49 +511,49 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-08-23</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-08-23 15:33:48</t>
+          <t>2024-08-26 09:59:38</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5.2025</v>
+        <v>5.2325</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>5.005</v>
       </c>
       <c r="F2" t="n">
-        <v>5.27601</v>
+        <v>5.25163</v>
       </c>
       <c r="G2" t="n">
-        <v>5.08064</v>
+        <v>5.06109</v>
       </c>
       <c r="H2" t="n">
-        <v>4.7737</v>
+        <v>4.74793</v>
       </c>
       <c r="I2" t="n">
-        <v>4.30022</v>
+        <v>4.26103</v>
       </c>
       <c r="J2" t="n">
-        <v>5.39243</v>
+        <v>5.39049</v>
       </c>
       <c r="K2" t="n">
-        <v>5.33292</v>
+        <v>5.34225</v>
       </c>
       <c r="L2" t="n">
-        <v>5.27</v>
+        <v>5.24</v>
       </c>
       <c r="M2" t="n">
-        <v>5.1</v>
+        <v>5.11</v>
       </c>
       <c r="N2" t="n">
-        <v>4.92</v>
+        <v>4.87</v>
       </c>
       <c r="O2" t="n">
-        <v>4.75</v>
+        <v>4.66</v>
       </c>
     </row>
   </sheetData>
